--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,19 +434,28 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Student Marks</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Student Gender</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -466,11 +475,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vijay</t>
+          <t>Sagar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -486,7 +495,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -506,11 +515,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sagar</t>
+          <t>Udit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -519,26 +528,6 @@
         </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Udit</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>M</t>
         </is>
